--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -580,6 +580,81 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0-12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0-8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,26 +512,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -580,81 +580,6 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0-12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>21</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0-9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>21</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0-8</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>False</t>
         </is>
